--- a/log_message/zalo_log.xlsx
+++ b/log_message/zalo_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
   <si>
     <t>Thời gian gửi</t>
   </si>
@@ -61,6 +61,45 @@
     <t>3G_TTT032M_HNI</t>
   </si>
   <si>
+    <t>SR_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>SR_BVI025M_HNI</t>
+  </si>
+  <si>
+    <t>GU_STY045M_HNI</t>
+  </si>
+  <si>
+    <t>SR_BVI019M_HNI</t>
+  </si>
+  <si>
+    <t>2G_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>3G_BVI010M_HNI</t>
+  </si>
+  <si>
+    <t>4G-BVI010M-HNI</t>
+  </si>
+  <si>
+    <t>UL_BVI063M_HNI</t>
+  </si>
+  <si>
+    <t>3G_BVI078M_HNI</t>
+  </si>
+  <si>
+    <t>4G-BVI078M-HNI</t>
+  </si>
+  <si>
+    <t>SR_BVI027M_HNI</t>
+  </si>
+  <si>
+    <t>UL_BVI110M_HNI</t>
+  </si>
+  <si>
+    <t>UL_BVI029M_HNI</t>
+  </si>
+  <si>
     <t>SITE_OOS_BY_POWER</t>
   </si>
   <si>
@@ -82,10 +121,16 @@
     <t>Ba Vì</t>
   </si>
   <si>
+    <t>Sơn Tây</t>
+  </si>
+  <si>
     <t>GS vận hành MFĐ-BTS -TTT-KTĐH</t>
   </si>
   <si>
     <t>GS vận hành MFĐ BVI-KTĐH</t>
+  </si>
+  <si>
+    <t>GS vận hành MFĐ STY-KTĐH</t>
   </si>
 </sst>
 </file>
@@ -447,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -509,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -523,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -537,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -551,10 +596,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -565,10 +610,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -579,16 +624,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -599,16 +644,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -619,16 +664,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -639,16 +684,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -659,56 +704,576 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45764.64815084105</v>
+        <v>45764.64815084491</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45764.64831448231</v>
+        <v>45764.64831447916</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>45764.67090625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>45770.32937153935</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>45770.32944082176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>45770.32960436343</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>45770.39975960648</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>45783.58152850695</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>45783.5815784838</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>45783.58162856482</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>45783.58167836806</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>45783.5817275463</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>45783.58177693287</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>45783.58182787037</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>45783.58187751158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>45783.658495625</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>45783.65854945602</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>45783.65860049769</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>45783.65865140046</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>45783.65870472222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>45783.65875508102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>45783.65880706019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>45783.65892736111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>45783.69941286339</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>45783.69948254665</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>45783.69955238333</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>45783.6996227044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>45783.69969251996</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/log_message/zalo_log.xlsx
+++ b/log_message/zalo_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
   <si>
     <t>Thời gian gửi</t>
   </si>
@@ -100,6 +100,15 @@
     <t>UL_BVI029M_HNI</t>
   </si>
   <si>
+    <t>4G_PTO015M_HNI</t>
+  </si>
+  <si>
+    <t>3G_BVI110M_HNI</t>
+  </si>
+  <si>
+    <t>4G-BVI110M-HNI</t>
+  </si>
+  <si>
     <t>SITE_OOS_BY_POWER</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>Sơn Tây</t>
   </si>
   <si>
+    <t>Phúc Thọ</t>
+  </si>
+  <si>
     <t>GS vận hành MFĐ-BTS -TTT-KTĐH</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
   </si>
   <si>
     <t>GS vận hành MFĐ STY-KTĐH</t>
+  </si>
+  <si>
+    <t>GS vận hành MFĐ PTO-KTĐH</t>
   </si>
 </sst>
 </file>
@@ -492,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -540,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -554,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -568,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -582,10 +597,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -596,10 +611,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -610,10 +625,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -624,16 +639,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -644,16 +659,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -664,16 +679,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -684,16 +699,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -704,16 +719,16 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -724,16 +739,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -744,16 +759,16 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -764,16 +779,16 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -784,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -804,16 +819,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -824,16 +839,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -844,16 +859,16 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -864,16 +879,16 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -884,16 +899,16 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -904,16 +919,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -924,16 +939,16 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -944,16 +959,16 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -964,16 +979,16 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -984,16 +999,16 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1004,16 +1019,16 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1024,16 +1039,16 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1044,16 +1059,16 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1064,16 +1079,16 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1084,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1104,16 +1119,16 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1124,16 +1139,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1144,16 +1159,16 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1164,116 +1179,196 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45783.69941286339</v>
+        <v>45783.6994128588</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45783.69948254665</v>
+        <v>45783.6994825463</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45783.69955238333</v>
+        <v>45783.69955238426</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45783.6996227044</v>
+        <v>45783.69962270834</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45783.69969251996</v>
+        <v>45783.69969252315</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>45784.4906693287</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>45784.49078851852</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>45784.49083607639</v>
+      </c>
+      <c r="B44" t="s">
         <v>30</v>
       </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" t="s">
-        <v>37</v>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>45784.54312510684</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
